--- a/state_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
+++ b/state_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51897169493275</v>
+        <v>1.62128431342054</v>
       </c>
       <c r="H2" t="n">
-        <v>9.08294866247291</v>
+        <v>11.6981799568482</v>
       </c>
       <c r="I2" t="n">
-        <v>5.44084</v>
+        <v>6.06532</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1470,16 +1470,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.636</v>
+        <v>0.6357</v>
       </c>
       <c r="G13" t="n">
-        <v>0.641607142857143</v>
+        <v>0.641585714285714</v>
       </c>
       <c r="H13" t="n">
         <v>1.116</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0585</v>
+        <v>1.05863</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
         <v>0.4665</v>
       </c>
       <c r="M13" t="n">
-        <v>0.86494</v>
+        <v>0.86495</v>
       </c>
       <c r="N13" t="n">
         <v>1.0305</v>
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.636</v>
+        <v>0.6357</v>
       </c>
       <c r="G14" t="n">
-        <v>0.641607142857143</v>
+        <v>0.641585714285714</v>
       </c>
       <c r="H14" t="n">
         <v>1.116</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0585</v>
+        <v>1.05863</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
         <v>0.4665</v>
       </c>
       <c r="M14" t="n">
-        <v>0.86494</v>
+        <v>0.86495</v>
       </c>
       <c r="N14" t="n">
         <v>1.0305</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.656</v>
+        <v>0.6556</v>
       </c>
       <c r="G30" t="n">
-        <v>0.664830508474576</v>
+        <v>0.6648050847457631</v>
       </c>
       <c r="H30" t="n">
         <v>1.116</v>
       </c>
       <c r="I30" t="n">
-        <v>1.05775</v>
+        <v>1.0579</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2859,7 +2859,7 @@
         <v>0.89205</v>
       </c>
       <c r="N30" t="n">
-        <v>1.02208</v>
+        <v>1.02201</v>
       </c>
       <c r="O30" t="n">
         <v>1845296</v>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.656</v>
+        <v>0.6556</v>
       </c>
       <c r="G31" t="n">
-        <v>0.664830508474576</v>
+        <v>0.6648050847457631</v>
       </c>
       <c r="H31" t="n">
         <v>1.116</v>
       </c>
       <c r="I31" t="n">
-        <v>1.05775</v>
+        <v>1.0579</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
         <v>0.89205</v>
       </c>
       <c r="N31" t="n">
-        <v>1.02208</v>
+        <v>1.02201</v>
       </c>
       <c r="O31" t="n">
         <v>1845296</v>
@@ -4208,10 +4208,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6655</v>
+        <v>0.66555</v>
       </c>
       <c r="G47" t="n">
-        <v>0.67475</v>
+        <v>0.674725</v>
       </c>
       <c r="H47" t="n">
         <v>1.36</v>
@@ -4222,13 +4222,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.441</v>
+        <v>0.44105</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9513</v>
+        <v>0.95139</v>
       </c>
       <c r="N47" t="n">
-        <v>1.0585</v>
+        <v>1.05863</v>
       </c>
       <c r="O47" t="n">
         <v>1845296</v>
@@ -4285,10 +4285,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6655</v>
+        <v>0.66555</v>
       </c>
       <c r="G48" t="n">
-        <v>0.67475</v>
+        <v>0.674725</v>
       </c>
       <c r="H48" t="n">
         <v>1.36</v>
@@ -4299,13 +4299,13 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.441</v>
+        <v>0.44105</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9513</v>
+        <v>0.95139</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0585</v>
+        <v>1.05863</v>
       </c>
       <c r="O48" t="n">
         <v>1845296</v>
@@ -5577,16 +5577,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.66</v>
+        <v>0.6601</v>
       </c>
       <c r="G64" t="n">
-        <v>0.671237288135593</v>
+        <v>0.67121186440678</v>
       </c>
       <c r="H64" t="n">
         <v>1.36</v>
       </c>
       <c r="I64" t="n">
-        <v>1.09025</v>
+        <v>1.09029</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5594,10 +5594,10 @@
         <v>0.4025</v>
       </c>
       <c r="M64" t="n">
-        <v>0.96788</v>
+        <v>0.96804</v>
       </c>
       <c r="N64" t="n">
-        <v>1.0528</v>
+        <v>1.05296</v>
       </c>
       <c r="O64" t="n">
         <v>1845296</v>
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.66</v>
+        <v>0.6601</v>
       </c>
       <c r="G65" t="n">
-        <v>0.671237288135593</v>
+        <v>0.67121186440678</v>
       </c>
       <c r="H65" t="n">
         <v>1.36</v>
       </c>
       <c r="I65" t="n">
-        <v>1.09025</v>
+        <v>1.09029</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5671,10 +5671,10 @@
         <v>0.4025</v>
       </c>
       <c r="M65" t="n">
-        <v>0.96788</v>
+        <v>0.96804</v>
       </c>
       <c r="N65" t="n">
-        <v>1.0528</v>
+        <v>1.05296</v>
       </c>
       <c r="O65" t="n">
         <v>1845296</v>
@@ -6949,13 +6949,13 @@
         <v>0.6475</v>
       </c>
       <c r="G81" t="n">
-        <v>0.66701724137931</v>
+        <v>0.667003448275862</v>
       </c>
       <c r="H81" t="n">
         <v>1.36</v>
       </c>
       <c r="I81" t="n">
-        <v>1.093</v>
+        <v>1.09304</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -6963,10 +6963,10 @@
         <v>0.4025</v>
       </c>
       <c r="M81" t="n">
-        <v>0.96856</v>
+        <v>0.96867</v>
       </c>
       <c r="N81" t="n">
-        <v>1.0536</v>
+        <v>1.05377</v>
       </c>
       <c r="O81" t="n">
         <v>1845296</v>
@@ -7026,13 +7026,13 @@
         <v>0.6475</v>
       </c>
       <c r="G82" t="n">
-        <v>0.66701724137931</v>
+        <v>0.667003448275862</v>
       </c>
       <c r="H82" t="n">
         <v>1.36</v>
       </c>
       <c r="I82" t="n">
-        <v>1.093</v>
+        <v>1.09304</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7040,10 +7040,10 @@
         <v>0.4025</v>
       </c>
       <c r="M82" t="n">
-        <v>0.96856</v>
+        <v>0.96867</v>
       </c>
       <c r="N82" t="n">
-        <v>1.0536</v>
+        <v>1.05377</v>
       </c>
       <c r="O82" t="n">
         <v>1845296</v>
@@ -7415,7 +7415,7 @@
         <v>0.9</v>
       </c>
       <c r="G87" t="n">
-        <v>1.17894402803207</v>
+        <v>1.1786842648809</v>
       </c>
       <c r="H87" t="n">
         <v>4.96</v>
@@ -8318,7 +8318,7 @@
         <v>0.645</v>
       </c>
       <c r="G98" t="n">
-        <v>0.66151724137931</v>
+        <v>0.661512068965517</v>
       </c>
       <c r="H98" t="n">
         <v>1.36</v>
@@ -8332,7 +8332,7 @@
         <v>0.4025</v>
       </c>
       <c r="M98" t="n">
-        <v>0.95844</v>
+        <v>0.95863</v>
       </c>
       <c r="N98" t="n">
         <v>1.0393</v>
@@ -8395,7 +8395,7 @@
         <v>0.645</v>
       </c>
       <c r="G99" t="n">
-        <v>0.66151724137931</v>
+        <v>0.661512068965517</v>
       </c>
       <c r="H99" t="n">
         <v>1.36</v>
@@ -8409,7 +8409,7 @@
         <v>0.4025</v>
       </c>
       <c r="M99" t="n">
-        <v>0.95844</v>
+        <v>0.95863</v>
       </c>
       <c r="N99" t="n">
         <v>1.0393</v>
@@ -8784,7 +8784,7 @@
         <v>0.67</v>
       </c>
       <c r="G104" t="n">
-        <v>1.07183809665943</v>
+        <v>1.07153677140408</v>
       </c>
       <c r="H104" t="n">
         <v>4.96</v>
@@ -8795,7 +8795,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.48323</v>
+        <v>1.47569</v>
       </c>
       <c r="M104" t="n">
         <v>1.84</v>
@@ -9687,7 +9687,7 @@
         <v>0.597</v>
       </c>
       <c r="G115" t="n">
-        <v>0.641298245614035</v>
+        <v>0.641289473684211</v>
       </c>
       <c r="H115" t="n">
         <v>1.36</v>
@@ -9764,7 +9764,7 @@
         <v>0.597</v>
       </c>
       <c r="G116" t="n">
-        <v>0.641298245614035</v>
+        <v>0.641289473684211</v>
       </c>
       <c r="H116" t="n">
         <v>1.36</v>
@@ -10153,7 +10153,7 @@
         <v>0.435</v>
       </c>
       <c r="G121" t="n">
-        <v>0.644569162689798</v>
+        <v>0.644210442147709</v>
       </c>
       <c r="H121" t="n">
         <v>1.9</v>
@@ -11056,7 +11056,7 @@
         <v>0.5985</v>
       </c>
       <c r="G132" t="n">
-        <v>0.62662</v>
+        <v>0.62661</v>
       </c>
       <c r="H132" t="n">
         <v>1.27</v>
@@ -11133,7 +11133,7 @@
         <v>0.5985</v>
       </c>
       <c r="G133" t="n">
-        <v>0.62662</v>
+        <v>0.62661</v>
       </c>
       <c r="H133" t="n">
         <v>1.27</v>
@@ -11492,1375 +11492,6 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Visual Clarity (Sediment class 4)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.603287252676501</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1.21823</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.55072</v>
-      </c>
-      <c r="N138" t="n">
-        <v>1.802</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P138" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.009634624417703399</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.02055</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>0.00469</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.01687</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.01938</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P139" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.009634624417703399</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.02055</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>0.00469</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.01687</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.01938</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P140" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>330</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2391.71794871795</v>
-      </c>
-      <c r="H141" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I141" t="n">
-        <v>10965</v>
-      </c>
-      <c r="J141" t="n">
-        <v>46.1538461538462</v>
-      </c>
-      <c r="K141" t="n">
-        <v>53.8461538461538</v>
-      </c>
-      <c r="L141" t="n">
-        <v>180</v>
-      </c>
-      <c r="M141" t="n">
-        <v>3131</v>
-      </c>
-      <c r="N141" t="n">
-        <v>7220</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P141" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>330</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2391.71794871795</v>
-      </c>
-      <c r="H142" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I142" t="n">
-        <v>10965</v>
-      </c>
-      <c r="J142" t="n">
-        <v>46.1538461538462</v>
-      </c>
-      <c r="K142" t="n">
-        <v>53.8461538461538</v>
-      </c>
-      <c r="L142" t="n">
-        <v>180</v>
-      </c>
-      <c r="M142" t="n">
-        <v>3131</v>
-      </c>
-      <c r="N142" t="n">
-        <v>7220</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P142" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>330</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2391.71794871795</v>
-      </c>
-      <c r="H143" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I143" t="n">
-        <v>10965</v>
-      </c>
-      <c r="J143" t="n">
-        <v>46.1538461538462</v>
-      </c>
-      <c r="K143" t="n">
-        <v>53.8461538461538</v>
-      </c>
-      <c r="L143" t="n">
-        <v>180</v>
-      </c>
-      <c r="M143" t="n">
-        <v>3131</v>
-      </c>
-      <c r="N143" t="n">
-        <v>7220</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P143" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>330</v>
-      </c>
-      <c r="G144" t="n">
-        <v>2391.71794871795</v>
-      </c>
-      <c r="H144" t="n">
-        <v>39000</v>
-      </c>
-      <c r="I144" t="n">
-        <v>10965</v>
-      </c>
-      <c r="J144" t="n">
-        <v>46.1538461538462</v>
-      </c>
-      <c r="K144" t="n">
-        <v>53.8461538461538</v>
-      </c>
-      <c r="L144" t="n">
-        <v>180</v>
-      </c>
-      <c r="M144" t="n">
-        <v>3131</v>
-      </c>
-      <c r="N144" t="n">
-        <v>7220</v>
-      </c>
-      <c r="O144" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P144" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>0.00878</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0107478446375272</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.0531043136520724</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.02829</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>0.008529999999999999</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.01323</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.01857</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P145" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>0.00878</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0107478446375272</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.0531043136520724</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.02829</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>0.008529999999999999</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.01323</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.01857</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P146" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U146" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.569846153846154</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.81038</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.90076</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P147" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.569846153846154</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.81038</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.90076</v>
-      </c>
-      <c r="O148" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P148" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.588230769230769</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.9932</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.82434</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="O149" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P149" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.588230769230769</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.9932</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.82434</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="O150" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P150" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.883589743589744</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.3935</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M151" t="n">
-        <v>1.1961</v>
-      </c>
-      <c r="N151" t="n">
-        <v>1.2566</v>
-      </c>
-      <c r="O151" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P151" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.883589743589744</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.3935</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.1961</v>
-      </c>
-      <c r="N152" t="n">
-        <v>1.2566</v>
-      </c>
-      <c r="O152" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P152" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0736666666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.3268</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.08661000000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.21634</v>
-      </c>
-      <c r="O153" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P153" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Manawatu at Ngawapurua Bridge</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2018 - 2022</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.0736666666666667</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.3268</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.08661000000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.21634</v>
-      </c>
-      <c r="O154" t="n">
-        <v>1845296</v>
-      </c>
-      <c r="P154" t="n">
-        <v>5525295</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>Tiraumea</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>Mana_7b</t>
-        </is>
-      </c>
-      <c r="U154" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
+++ b/state_results/Rivers/ManawatuatNgawapuruaBridge_a702aaa1b3.xlsx
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62128431342054</v>
+        <v>1.69640766564033</v>
       </c>
       <c r="H2" t="n">
-        <v>11.6981799568482</v>
+        <v>13.9921359449638</v>
       </c>
       <c r="I2" t="n">
-        <v>6.06532</v>
+        <v>6.39304</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -7415,7 +7415,7 @@
         <v>0.9</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1786842648809</v>
+        <v>1.18662121081686</v>
       </c>
       <c r="H87" t="n">
         <v>4.96</v>
@@ -7426,10 +7426,10 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1.518</v>
+        <v>1.568</v>
       </c>
       <c r="M87" t="n">
-        <v>1.8784</v>
+        <v>1.9</v>
       </c>
       <c r="N87" t="n">
         <v>2.2892</v>
@@ -8784,7 +8784,7 @@
         <v>0.67</v>
       </c>
       <c r="G104" t="n">
-        <v>1.07153677140408</v>
+        <v>1.08074362868979</v>
       </c>
       <c r="H104" t="n">
         <v>4.96</v>
@@ -8795,10 +8795,10 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.47569</v>
+        <v>1.518</v>
       </c>
       <c r="M104" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="N104" t="n">
         <v>3</v>
@@ -10153,13 +10153,13 @@
         <v>0.435</v>
       </c>
       <c r="G121" t="n">
-        <v>0.644210442147709</v>
+        <v>0.655170986535468</v>
       </c>
       <c r="H121" t="n">
+        <v>1.91172861295613</v>
+      </c>
+      <c r="I121" t="n">
         <v>1.9</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1.864</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10167,10 +10167,10 @@
         <v>0.905</v>
       </c>
       <c r="M121" t="n">
-        <v>1.51296</v>
+        <v>1.55904</v>
       </c>
       <c r="N121" t="n">
-        <v>1.8056</v>
+        <v>1.8484</v>
       </c>
       <c r="O121" t="n">
         <v>1845296</v>
